--- a/mbs-perturbation/mega/elm/nearmiss/ELM_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/mega/elm/nearmiss/ELM_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.581081081081081</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6991869918699187</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8056882327399046</v>
+        <v>0.4667019027484144</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5189873417721519</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8913043478260869</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6559999999999999</v>
+        <v>0.6041666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.830967169476486</v>
+        <v>0.6677248677248677</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5444444444444444</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7050359712230216</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3804347826086957</v>
+        <v>0.51033934252386</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4942528735632184</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6564885496183206</v>
+        <v>0.6614173228346457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7506684491978609</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5494505494505495</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7092198581560284</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5222222222222223</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5376432580622892</v>
+        <v>0.3100284051736025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9492256191013955</v>
+        <v>0.5287929125138427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6851862741734578</v>
+        <v>0.3875430274084592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6579961712490339</v>
+        <v>0.5511754448216506</v>
       </c>
     </row>
   </sheetData>
